--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Text-to-image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khanh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>content</t>
   </si>
@@ -126,6 +126,66 @@
   </si>
   <si>
     <t>một bàn tay có mấy ngón tay</t>
+  </si>
+  <si>
+    <t>số lẻ liền sau số ba</t>
+  </si>
+  <si>
+    <t>số nguyên tố nhỏ thứ 3</t>
+  </si>
+  <si>
+    <t>một nửa của một chục</t>
+  </si>
+  <si>
+    <t>số liền sau của số năm</t>
+  </si>
+  <si>
+    <t>số chẵn lớn thứ hai có một chữ số</t>
+  </si>
+  <si>
+    <t>Trong một năm có bao nhiêu tháng có 30 ngày</t>
+  </si>
+  <si>
+    <t>số liền trước của số 7</t>
+  </si>
+  <si>
+    <t>một tuần có mấy ngày</t>
+  </si>
+  <si>
+    <t>số lẻ lớn thứ hai có một chữ số</t>
+  </si>
+  <si>
+    <t>số liến trước của số tám</t>
+  </si>
+  <si>
+    <t>số liền sau của số sáu</t>
+  </si>
+  <si>
+    <t>số chẵn lớn nhất có một chữ số</t>
+  </si>
+  <si>
+    <t>số liến trước của số chín</t>
+  </si>
+  <si>
+    <t>số liền sau của số bảy</t>
+  </si>
+  <si>
+    <t>tháng chẵn đầu tiên có 31 ngày</t>
+  </si>
+  <si>
+    <t>số lẻ lớn nhất có một chữ số</t>
+  </si>
+  <si>
+    <t>số lớn nhất có một chữ số</t>
+  </si>
+  <si>
+    <t>số liền sau của số tám</t>
+  </si>
+  <si>
+    <t>số liền trước của số mười</t>
+  </si>
+  <si>
+    <t>số chính phương lớn nhất có một chữ số</t>
   </si>
 </sst>
 </file>
@@ -443,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,6 +775,166 @@
         <v>5</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
